--- a/数据整理/stocks/其他/AMZN-亚马逊公司.xlsx
+++ b/数据整理/stocks/其他/AMZN-亚马逊公司.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2759,4 +2760,1124 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000055</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100指数(QDII) A 美元现汇</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4392</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>270042</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100指数QDII A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>42.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.4392</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006479</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100指数（QDII）C人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>42.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.4392</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006480</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100指数（QDII）C美元现汇</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>42.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.4392</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>040046</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数QDII - 人民币</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5106</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>040047</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数QDII - 美元现钞</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5106</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>040048</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数QDII - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5106</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000988</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票 - 人民币QDII</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.4442</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000989</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票 - 美元现汇QDII</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.4442</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000990</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票 - 美元现钞QDII</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.87</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.4442</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰纳斯达克100 (QDII-ETF)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.93</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.3555</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001668</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富全球移动互联灵活配置混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>29.85</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.3134</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>513500</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时标普500ETF(QDII)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>34.25</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.3118</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000834</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成纳斯达克100指数 (QDII)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13.94</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.0608</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160213</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰纳斯达克100指数(QDII)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.96</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9785</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>161130</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数人民币（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7384</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003722</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数美元（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7384</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000043</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实美国成长股票(QDII) -人民币</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.73</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7232</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000044</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实美国成长股票(QDII) - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.73</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7232</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002423</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>21.68</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6742</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>162415</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>21.68</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6742</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159941</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100ETFQDII</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5843</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>161125</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达标普500指数(QDII-LOF) 人民币</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1928</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003718</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达标普500指数(QDII-LOF) 美元</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1928</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009975</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>21.68</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0715</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006373</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富兰克林国海全球科技互联混合（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006374</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富兰克林国海全球科技互联混合（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006555</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>浦银安盛全球智能科技股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/AMZN-亚马逊公司.xlsx
+++ b/数据整理/stocks/其他/AMZN-亚马逊公司.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3880,4 +3881,1124 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000055</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100指数(QDII) A 美元现汇</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.1070</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006479</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100指数（QDII）C人民币</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>56.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.1070</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006480</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100指数（QDII）C美元现汇</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>56.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.1070</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>270042</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100指数QDII A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>56.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.1070</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰纳斯达克100 (QDII-ETF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6399</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>040046</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数QDII - 人民币</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6192</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>040047</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数QDII - 美元现钞</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.6192</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>040048</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数QDII - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.6192</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>513500</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时标普500ETF(QDII)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>40.94</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.66</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.5352</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000988</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票 - 人民币QDII</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3849</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000989</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票 - 美元现汇QDII</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.3849</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000990</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票 - 美元现钞QDII</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14.19</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.3849</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160213</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰纳斯达克100指数(QDII)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0653</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000834</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成纳斯达克100指数 (QDII)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.07</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9835</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001668</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富全球移动互联灵活配置混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>23.63</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9570</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>162415</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>20.95</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7102</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002423</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>20.95</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7102</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000043</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实美国成长股票(QDII) -人民币</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.73</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6850</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000044</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实美国成长股票(QDII) - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.73</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6850</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>161130</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数人民币（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6674</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003722</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数美元（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6674</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159941</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100ETFQDII</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4860</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>161125</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达标普500指数(QDII-LOF) 人民币</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2039</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003718</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达标普500指数(QDII-LOF) 美元</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2039</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009975</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>20.95</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1131</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006373</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富兰克林国海全球科技互联混合（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>78.55</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006374</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富兰克林国海全球科技互联混合（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>78.55</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006555</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>浦银安盛全球智能科技股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/AMZN-亚马逊公司.xlsx
+++ b/数据整理/stocks/其他/AMZN-亚马逊公司.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5001,4 +5002,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>28</v>
+      </c>
+      <c r="D2" t="n">
+        <v>36.85</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>28</v>
+      </c>
+      <c r="D3" t="n">
+        <v>34.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>28</v>
+      </c>
+      <c r="D4" t="n">
+        <v>29.67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D5" t="n">
+        <v>29.37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/AMZN-亚马逊公司.xlsx
+++ b/数据整理/stocks/其他/AMZN-亚马逊公司.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5010,7 +5011,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5021,17 +5022,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5041,14 +5062,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>28</v>
-      </c>
-      <c r="D2" t="n">
-        <v>36.85</v>
+          <t>270042</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100指数QDII A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>75.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.1211</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -5057,14 +5100,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>28</v>
-      </c>
-      <c r="D3" t="n">
-        <v>34.06</v>
+          <t>000055</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100指数(QDII) A 美元现汇</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>75.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.1211</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -5073,14 +5138,880 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>006479</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100指数（QDII）C人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>75.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.1211</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006480</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100指数（QDII）C美元现汇</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>75.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.1211</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>513500</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时标普500ETF(QDII)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>70.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.3670</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰纳斯达克100 (QDII-ETF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>34.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.1465</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>040046</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数QDII - 人民币</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>27.65</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.7005</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>040047</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数QDII - 美元现钞</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>27.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.7005</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>040048</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数QDII - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>27.65</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.7005</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000988</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票 - 人民币QDII</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3819</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000990</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票 - 美元现钞QDII</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.51</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.3819</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160213</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰纳斯达克100指数(QDII)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>19.07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1690</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000834</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成纳斯达克100指数 (QDII)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.26</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9902</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>162415</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>21.12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9082</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159941</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100ETFQDII</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7434</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000043</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实美国成长股票(QDII) -人民币</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>17.53</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7398</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000044</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实美国成长股票(QDII) - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>17.53</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7398</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002423</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>21.12</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7160</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>161130</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数人民币（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6117</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003718</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达标普500指数(QDII-LOF) 美元</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2315</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003722</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数美元（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2091</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>161125</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达标普500指数(QDII-LOF) 人民币</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2047</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009975</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>21.12</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1521</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>23</v>
+      </c>
+      <c r="D2" t="n">
+        <v>40.28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>28</v>
+      </c>
+      <c r="D3" t="n">
+        <v>36.85</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>28</v>
       </c>
       <c r="D4" t="n">
-        <v>29.67</v>
+        <v>34.06</v>
       </c>
     </row>
     <row r="5">
@@ -5089,13 +6020,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>28</v>
+      </c>
+      <c r="D5" t="n">
+        <v>29.67</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>30</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>29.37</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/AMZN-亚马逊公司.xlsx
+++ b/数据整理/stocks/其他/AMZN-亚马逊公司.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5941,7 +5942,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5952,17 +5953,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5972,14 +5993,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
-        <v>40.28</v>
+          <t>000055</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100指数(QDII) A 美元现汇</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>75.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.2149</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -5988,14 +6031,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>28</v>
-      </c>
-      <c r="D3" t="n">
-        <v>36.85</v>
+          <t>270042</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100指数QDII A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>75.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.2149</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -6004,14 +6069,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>28</v>
-      </c>
-      <c r="D4" t="n">
-        <v>34.06</v>
+          <t>006479</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100指数（QDII）C人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>75.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.2149</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -6020,14 +6107,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>28</v>
-      </c>
-      <c r="D5" t="n">
-        <v>29.67</v>
+          <t>006480</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100指数（QDII）C美元现汇</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>75.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.2149</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -6036,13 +6145,1003 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰纳斯达克100 (QDII-ETF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>41.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.7586</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>513500</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时标普500ETF(QDII)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>70.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.3600</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>040046</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数QDII - 人民币</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5104</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>040047</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数QDII - 美元现钞</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22.85</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.5104</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>040048</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数QDII - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>22.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.5104</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000988</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票 - 人民币QDII</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>10.18</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3448</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000989</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票 - 美元现汇QDII</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>10.18</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.3448</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000990</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票 - 美元现钞QDII</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>10.18</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.3448</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160213</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰纳斯达克100指数(QDII)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.88</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0449</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000834</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成纳斯达克100指数 (QDII)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.15</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9198</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>270023</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发全球精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>25.53</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>78.43</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8706</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000906</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发全球精选股票(QDII)美元现汇</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>25.53</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>78.43</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8706</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159941</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100ETFQDII</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.87</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8178</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002423</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>21.87</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7917</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>162415</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>21.87</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7917</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000043</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实美国成长股票(QDII) -人民币</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>14.64</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6910</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000044</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实美国成长股票(QDII) - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>14.64</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6910</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003722</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数美元（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6041</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>161130</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数人民币（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6041</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003718</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达标普500指数(QDII-LOF) 美元</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1759</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>161125</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达标普500指数(QDII-LOF) 人民币</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1759</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009975</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>21.87</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1334</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006555</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>浦银安盛全球智能科技股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.41</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0854</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>27</v>
+      </c>
+      <c r="D2" t="n">
+        <v>43.81</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D3" t="n">
+        <v>40.28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>28</v>
+      </c>
+      <c r="D4" t="n">
+        <v>36.85</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>28</v>
+      </c>
+      <c r="D5" t="n">
+        <v>34.06</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>28</v>
+      </c>
+      <c r="D6" t="n">
+        <v>29.67</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>30</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>29.37</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/AMZN-亚马逊公司.xlsx
+++ b/数据整理/stocks/其他/AMZN-亚马逊公司.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7024,7 +7025,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7035,17 +7036,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7055,14 +7076,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>27</v>
-      </c>
-      <c r="D2" t="n">
-        <v>43.81</v>
+          <t>159941</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100ETFQDII</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>79.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.3372</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -7071,14 +7114,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>23</v>
-      </c>
-      <c r="D3" t="n">
-        <v>40.28</v>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰纳斯达克100 (QDII-ETF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>41.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2707</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -7087,14 +7152,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>28</v>
-      </c>
-      <c r="D4" t="n">
-        <v>36.85</v>
+          <t>513500</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时标普500ETF(QDII)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>62.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7248</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -7103,14 +7190,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>28</v>
-      </c>
-      <c r="D5" t="n">
-        <v>34.06</v>
+          <t>040046</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数QDII - 人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2231</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -7119,14 +7228,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>28</v>
-      </c>
-      <c r="D6" t="n">
-        <v>29.67</v>
+          <t>040047</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数QDII - 美元现钞</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2231</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -7135,13 +7266,867 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>040048</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数QDII - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2231</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014978</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数（QDII）人民币C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2231</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160213</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰纳斯达克100指数(QDII)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.95</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7659</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002423</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7210</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000834</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成纳斯达克100指数 (QDII)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7148</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>162415</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5777</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000043</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实美国成长股票(QDII) -人民币</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.41</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4542</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000044</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实美国成长股票(QDII) - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.41</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4542</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003722</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数美元（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4102</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161130</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数人民币（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4102</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009975</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1433</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003718</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达标普500指数(QDII-LOF) 美元</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1238</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>161125</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达标普500指数(QDII-LOF) 人民币</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1238</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012860</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达标普500指数（QDII-LOF）人民币C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1238</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012861</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达标普500指数（QDII-LOF）美元C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1238</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012870</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数人民币（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012871</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数美元（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006555</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>浦银安盛全球智能科技股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>81.03</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014002</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>浦银安盛全球智能科技股票（QDII）C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>81.03</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18.39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>27</v>
+      </c>
+      <c r="D3" t="n">
+        <v>43.81</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>23</v>
+      </c>
+      <c r="D4" t="n">
+        <v>40.28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>28</v>
+      </c>
+      <c r="D5" t="n">
+        <v>36.85</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>28</v>
+      </c>
+      <c r="D6" t="n">
+        <v>34.06</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>28</v>
+      </c>
+      <c r="D7" t="n">
+        <v>29.67</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>30</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>29.37</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/AMZN-亚马逊公司.xlsx
+++ b/数据整理/stocks/其他/AMZN-亚马逊公司.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D2" t="n">
-        <v>18.39</v>
+        <v>20.05</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D3" t="n">
-        <v>43.81</v>
+        <v>18.39</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D4" t="n">
-        <v>40.28</v>
+        <v>43.81</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
-        <v>36.85</v>
+        <v>40.28</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>28</v>
       </c>
       <c r="D6" t="n">
-        <v>34.06</v>
+        <v>36.85</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>28</v>
       </c>
       <c r="D7" t="n">
-        <v>29.67</v>
+        <v>34.06</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>28</v>
+      </c>
+      <c r="D8" t="n">
+        <v>29.67</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>30</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>29.37</v>
       </c>
     </row>
@@ -600,6 +617,1430 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159941</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>114.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.1746</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰纳斯达克100（QDII-ETF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>51.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3948</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>513500</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时标普500ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0683</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159632</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6198</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000834</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成纳斯达克100指数（QDII）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8976</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160213</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰纳斯达克100指数（QDII）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8608</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002423</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝标普美国品质消费股票（LOF）美元</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>22.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8507</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>513300</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏纳斯达克100ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>97.54</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7346</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>162415</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华宝标普美国品质消费股票（LOF）人民币A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>22.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6303</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>015203</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富全球移动互联灵活配置混合（QDII）D</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5288</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001668</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富全球移动互联灵活配置混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.48</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5269</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161130</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数人民币（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4250</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003722</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数美元（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4250</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000043</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实美国成长股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.69</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4112</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000044</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实美国成长股票（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.69</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4112</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009975</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华宝标普美国品质消费股票（LOF）人民币C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>22.04</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2204</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012860</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达标普500指数（QDII-LOF）人民币 C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1007</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>161125</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达标普500指数（QDII-LOF）人民币</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1007</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003718</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达标普500指数（QDII-LOF）美元A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0986</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>016532</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实纳斯达克100指数（QDII）A人民币</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0643</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>016533</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实纳斯达克100指数（QDII）C人民币</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0643</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>016534</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实纳斯达克100指数（QDII）A美元现汇</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0643</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>016535</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实纳斯达克100指数（QDII）C美元现汇</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0643</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>016055</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时纳斯达克100指数（QDII）A人民币</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>016057</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时纳斯达克100指数（QDII）C人民币</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>016056</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时纳斯达克100指数（QDII）A美元现汇</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>016058</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时纳斯达克100指数（QDII）C美元现汇</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005698</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏全球科技先锋混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>83.35</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159612</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国泰标普500ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012870</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数人民币（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012871</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数美元（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159655</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏标普500ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>014002</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>浦银安盛全球智能科技股票（QDII）C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>42.55</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006555</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>浦银安盛全球智能科技股票（QDII）A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>42.55</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012861</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>易方达标普500指数（QDII-LOF）美元 C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>015202</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇添富全球移动互联灵活配置混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1567,7 +3008,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2649,7 +4090,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3572,1126 +5013,6 @@
       </c>
       <c r="H24" t="n">
         <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000055</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发纳斯达克100指数(QDII) A 美元现汇</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>56.03</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>85.91</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.33</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4.1070</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006479</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发纳斯达克100指数（QDII）C人民币</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>56.03</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>85.91</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.33</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>4.1070</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006480</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发纳斯达克100指数（QDII）C美元现汇</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>56.03</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>85.91</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.33</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>4.1070</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>270042</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发纳斯达克100指数QDII A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>56.03</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>85.91</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.33</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>4.1070</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>513100</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国泰纳斯达克100 (QDII-ETF)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>23.13</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.69</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.09</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.6399</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>040046</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华安纳斯达克100指数QDII - 人民币</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>22.71</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.87</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7.13</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.6192</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>040047</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华安纳斯达克100指数QDII - 美元现钞</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>22.71</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>90.87</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>7.13</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1.6192</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>040048</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华安纳斯达克100指数QDII - 美元现汇</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>22.71</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>90.87</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>7.13</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1.6192</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>513500</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>博时标普500ETF(QDII)</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>40.94</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>95.66</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1.5352</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>000988</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>嘉实全球互联网股票 - 人民币QDII</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>14.19</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>9.76</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>1.3849</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>000989</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>嘉实全球互联网股票 - 美元现汇QDII</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>14.19</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>9.76</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>1.3849</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>000990</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>嘉实全球互联网股票 - 美元现钞QDII</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>14.19</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>9.76</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>1.3849</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>160213</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>国泰纳斯达克100指数(QDII)</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>15.11</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>90.47</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>7.05</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>1.0653</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>000834</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>大成纳斯达克100指数 (QDII)</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>14.07</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>89.90</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>6.99</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.9835</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>001668</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>汇添富全球移动互联灵活配置混合（QDII）</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>23.63</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>91.16</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.9570</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>162415</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>94.61</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>20.95</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.7102</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>002423</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>94.61</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>20.95</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.7102</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>000043</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>嘉实美国成长股票(QDII) -人民币</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>11.73</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>94.54</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>5.84</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.6850</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>000044</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>嘉实美国成长股票(QDII) - 美元现汇</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>11.73</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>94.54</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>5.84</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.6850</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>161130</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>易方达纳斯达克100指数人民币（QDII-LOF）</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>9.40</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>90.57</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>7.10</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.6674</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>003722</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>易方达纳斯达克100指数美元（QDII-LOF）</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>9.40</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>90.57</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>7.10</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.6674</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>159941</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>广发纳斯达克100ETFQDII</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>7.19</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>85.55</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>6.76</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.4860</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>161125</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>易方达标普500指数(QDII-LOF) 人民币</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>5.68</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>90.98</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.2039</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>003718</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>易方达标普500指数(QDII-LOF) 美元</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>5.68</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>90.98</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.2039</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>009975</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>华宝标普美国消费(QDII-LOF)人民币C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>94.61</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>20.95</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.1131</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>006373</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>富兰克林国海全球科技互联混合（QDII）人民币</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>78.55</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0427</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>006374</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>富兰克林国海全球科技互联混合（QDII）美元现汇</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>78.55</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0427</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>006555</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>浦银安盛全球智能科技股票（QDII）</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>91.75</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0105</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -4766,22 +5087,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>42.67</t>
+          <t>56.03</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.58</t>
+          <t>85.91</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.06</t>
+          <t>7.33</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.4392</t>
+          <t>4.1070</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -4794,32 +5115,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>270042</t>
+          <t>006479</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发纳斯达克100指数QDII A</t>
+          <t>广发纳斯达克100指数（QDII）C人民币</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>42.67</t>
+          <t>56.03</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.58</t>
+          <t>85.91</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.06</t>
+          <t>7.33</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.4392</t>
+          <t>4.1070</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -4832,32 +5153,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006479</t>
+          <t>006480</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发纳斯达克100指数（QDII）C人民币</t>
+          <t>广发纳斯达克100指数（QDII）C美元现汇</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>42.67</t>
+          <t>56.03</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.58</t>
+          <t>85.91</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.06</t>
+          <t>7.33</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.4392</t>
+          <t>4.1070</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -4870,32 +5191,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006480</t>
+          <t>270042</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发纳斯达克100指数（QDII）C美元现汇</t>
+          <t>广发纳斯达克100指数QDII A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>42.67</t>
+          <t>56.03</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>87.58</t>
+          <t>85.91</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.06</t>
+          <t>7.33</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3.4392</t>
+          <t>4.1070</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -4908,32 +5229,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>040046</t>
+          <t>513100</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华安纳斯达克100指数QDII - 人民币</t>
+          <t>国泰纳斯达克100 (QDII-ETF)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>19.72</t>
+          <t>23.13</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.51</t>
+          <t>90.69</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.66</t>
+          <t>7.09</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.5106</t>
+          <t>1.6399</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -4946,32 +5267,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>040047</t>
+          <t>040046</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华安纳斯达克100指数QDII - 美元现钞</t>
+          <t>华安纳斯达克100指数QDII - 人民币</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>19.72</t>
+          <t>22.71</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.51</t>
+          <t>90.87</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.66</t>
+          <t>7.13</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.5106</t>
+          <t>1.6192</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -4984,32 +5305,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>040048</t>
+          <t>040047</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华安纳斯达克100指数QDII - 美元现汇</t>
+          <t>华安纳斯达克100指数QDII - 美元现钞</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>19.72</t>
+          <t>22.71</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.51</t>
+          <t>90.87</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7.66</t>
+          <t>7.13</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.5106</t>
+          <t>1.6192</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -5022,32 +5343,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>000988</t>
+          <t>040048</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>嘉实全球互联网股票 - 人民币QDII</t>
+          <t>华安纳斯达克100指数QDII - 美元现汇</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>15.87</t>
+          <t>22.71</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>92.55</t>
+          <t>90.87</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>9.10</t>
+          <t>7.13</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.4442</t>
+          <t>1.6192</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -5060,32 +5381,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>000989</t>
+          <t>513500</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>嘉实全球互联网股票 - 美元现汇QDII</t>
+          <t>博时标普500ETF(QDII)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>15.87</t>
+          <t>40.94</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>92.55</t>
+          <t>95.66</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>9.10</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.4442</t>
+          <t>1.5352</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -5098,36 +5419,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>000990</t>
+          <t>000988</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>嘉实全球互联网股票 - 美元现钞QDII</t>
+          <t>嘉实全球互联网股票 - 人民币QDII</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>15.87</t>
+          <t>14.19</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>92.55</t>
+          <t>94.08</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>9.10</t>
+          <t>9.76</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.4442</t>
+          <t>1.3849</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -5136,36 +5457,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>513100</t>
+          <t>000989</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>国泰纳斯达克100 (QDII-ETF)</t>
+          <t>嘉实全球互联网股票 - 美元现汇QDII</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>17.93</t>
+          <t>14.19</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>90.97</t>
+          <t>94.08</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>7.56</t>
+          <t>9.76</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.3555</t>
+          <t>1.3849</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -5174,36 +5495,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001668</t>
+          <t>000990</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>汇添富全球移动互联灵活配置混合（QDII）</t>
+          <t>嘉实全球互联网股票 - 美元现钞QDII</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>29.85</t>
+          <t>14.19</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>91.29</t>
+          <t>94.08</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>9.76</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.3134</t>
+          <t>1.3849</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -5212,32 +5533,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>513500</t>
+          <t>160213</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>博时标普500ETF(QDII)</t>
+          <t>国泰纳斯达克100指数(QDII)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>34.25</t>
+          <t>15.11</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>94.42</t>
+          <t>90.47</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>7.05</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1.3118</t>
+          <t>1.0653</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -5260,22 +5581,22 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>13.94</t>
+          <t>14.07</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>91.19</t>
+          <t>89.90</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>7.61</t>
+          <t>6.99</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1.0608</t>
+          <t>0.9835</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -5288,36 +5609,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>160213</t>
+          <t>001668</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>国泰纳斯达克100指数(QDII)</t>
+          <t>汇添富全球移动互联灵活配置混合（QDII）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>12.96</t>
+          <t>23.63</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>90.11</t>
+          <t>91.16</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>7.55</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.9785</t>
+          <t>0.9570</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -5326,36 +5647,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>161130</t>
+          <t>162415</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>易方达纳斯达克100指数人民币（QDII-LOF）</t>
+          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>9.54</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>92.74</t>
+          <t>94.61</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>7.74</t>
+          <t>20.95</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.7384</t>
+          <t>0.7102</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -5364,36 +5685,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>003722</t>
+          <t>002423</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>易方达纳斯达克100指数美元（QDII-LOF）</t>
+          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>9.54</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>92.74</t>
+          <t>94.61</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>7.74</t>
+          <t>20.95</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.7384</t>
+          <t>0.7102</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -5412,26 +5733,26 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>10.73</t>
+          <t>11.73</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>94.79</t>
+          <t>94.54</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>6.74</t>
+          <t>5.84</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.7232</t>
+          <t>0.6850</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -5450,26 +5771,26 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>10.73</t>
+          <t>11.73</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>94.79</t>
+          <t>94.54</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>6.74</t>
+          <t>5.84</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.7232</t>
+          <t>0.6850</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -5478,36 +5799,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>002423</t>
+          <t>161130</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
+          <t>易方达纳斯达克100指数人民币（QDII-LOF）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>9.40</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>94.65</t>
+          <t>90.57</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>21.68</t>
+          <t>7.10</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.6742</t>
+          <t>0.6674</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -5516,36 +5837,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>162415</t>
+          <t>003722</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
+          <t>易方达纳斯达克100指数美元（QDII-LOF）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>9.40</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>94.65</t>
+          <t>90.57</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>21.68</t>
+          <t>7.10</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.6742</t>
+          <t>0.6674</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -5564,22 +5885,22 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>6.61</t>
+          <t>7.19</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>87.92</t>
+          <t>85.55</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>8.84</t>
+          <t>6.76</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.5843</t>
+          <t>0.4860</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -5602,22 +5923,22 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>5.68</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>90.68</t>
+          <t>90.98</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.1928</t>
+          <t>0.2039</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -5640,22 +5961,22 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>5.68</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>90.68</t>
+          <t>90.98</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.1928</t>
+          <t>0.2039</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -5678,22 +5999,22 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>94.65</t>
+          <t>94.61</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>21.68</t>
+          <t>20.95</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0715</t>
+          <t>0.1131</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -5716,22 +6037,22 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>89.30</t>
+          <t>78.55</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0444</t>
+          <t>0.0427</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -5754,22 +6075,22 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>89.30</t>
+          <t>78.55</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0444</t>
+          <t>0.0427</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -5792,26 +6113,26 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>89.27</t>
+          <t>91.75</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0125</t>
+          <t>0.0105</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -5886,22 +6207,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>34.71</t>
+          <t>42.67</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.91</t>
+          <t>87.58</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.15</t>
+          <t>8.06</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.8289</t>
+          <t>3.4392</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -5924,22 +6245,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>34.71</t>
+          <t>42.67</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>86.91</t>
+          <t>87.58</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.15</t>
+          <t>8.06</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.8289</t>
+          <t>3.4392</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -5962,22 +6283,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>34.71</t>
+          <t>42.67</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>86.91</t>
+          <t>87.58</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.15</t>
+          <t>8.06</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.8289</t>
+          <t>3.4392</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -6000,22 +6321,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>34.71</t>
+          <t>42.67</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>86.91</t>
+          <t>87.58</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.15</t>
+          <t>8.06</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.8289</t>
+          <t>3.4392</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -6038,22 +6359,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>17.36</t>
+          <t>19.72</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.47</t>
+          <t>93.51</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.73</t>
+          <t>7.66</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.3419</t>
+          <t>1.5106</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -6076,22 +6397,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>17.36</t>
+          <t>19.72</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.47</t>
+          <t>93.51</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.73</t>
+          <t>7.66</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.3419</t>
+          <t>1.5106</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -6114,22 +6435,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>17.36</t>
+          <t>19.72</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.47</t>
+          <t>93.51</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7.73</t>
+          <t>7.66</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.3419</t>
+          <t>1.5106</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -6152,26 +6473,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>15.25</t>
+          <t>15.87</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>90.47</t>
+          <t>92.55</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>8.67</t>
+          <t>9.10</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.3222</t>
+          <t>1.4442</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -6190,26 +6511,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>15.25</t>
+          <t>15.87</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>90.47</t>
+          <t>92.55</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>8.67</t>
+          <t>9.10</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.3222</t>
+          <t>1.4442</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -6228,26 +6549,26 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>15.25</t>
+          <t>15.87</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>90.47</t>
+          <t>92.55</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>8.67</t>
+          <t>9.10</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.3222</t>
+          <t>1.4442</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -6266,12 +6587,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>16.68</t>
+          <t>17.93</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>90.31</t>
+          <t>90.97</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -6281,7 +6602,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.2610</t>
+          <t>1.3555</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -6304,22 +6625,22 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>27.65</t>
+          <t>29.85</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>92.28</t>
+          <t>91.29</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.1613</t>
+          <t>1.3134</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -6342,22 +6663,22 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>27.26</t>
+          <t>34.25</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>96.06</t>
+          <t>94.42</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1.0304</t>
+          <t>1.3118</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -6380,22 +6701,22 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>13.17</t>
+          <t>13.94</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>89.41</t>
+          <t>91.19</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>7.46</t>
+          <t>7.61</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.9825</t>
+          <t>1.0608</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -6418,22 +6739,22 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>10.67</t>
+          <t>12.96</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>90.60</t>
+          <t>90.11</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>7.62</t>
+          <t>7.55</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.8131</t>
+          <t>0.9785</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -6446,32 +6767,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>000043</t>
+          <t>161130</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>嘉实美国成长股票(QDII) -人民币</t>
+          <t>易方达纳斯达克100指数人民币（QDII-LOF）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>10.11</t>
+          <t>9.54</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>94.31</t>
+          <t>92.74</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>6.80</t>
+          <t>7.74</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.6875</t>
+          <t>0.7384</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -6484,32 +6805,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>000044</t>
+          <t>003722</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>嘉实美国成长股票(QDII) - 美元现汇</t>
+          <t>易方达纳斯达克100指数美元（QDII-LOF）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>10.11</t>
+          <t>9.54</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>94.31</t>
+          <t>92.74</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>6.80</t>
+          <t>7.74</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.6875</t>
+          <t>0.7384</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -6522,32 +6843,32 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>161130</t>
+          <t>000043</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>易方达纳斯达克100指数人民币（QDII-LOF）</t>
+          <t>嘉实美国成长股票(QDII) -人民币</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>8.78</t>
+          <t>10.73</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>92.57</t>
+          <t>94.79</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>7.74</t>
+          <t>6.74</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.6796</t>
+          <t>0.7232</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -6560,32 +6881,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>003722</t>
+          <t>000044</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>易方达纳斯达克100指数美元（QDII-LOF）</t>
+          <t>嘉实美国成长股票(QDII) - 美元现汇</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>8.78</t>
+          <t>10.73</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>92.57</t>
+          <t>94.79</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>7.74</t>
+          <t>6.74</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.6796</t>
+          <t>0.7232</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -6598,36 +6919,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>159941</t>
+          <t>002423</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>广发纳斯达克100ETFQDII</t>
+          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>7.54</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>92.91</t>
+          <t>94.65</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>8.94</t>
+          <t>21.68</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.6741</t>
+          <t>0.6742</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -6636,32 +6957,32 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>002423</t>
+          <t>162415</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
+          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>94.65</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>21.64</t>
+          <t>21.68</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.6211</t>
+          <t>0.6742</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -6674,36 +6995,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>162415</t>
+          <t>159941</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
+          <t>广发纳斯达克100ETFQDII</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>6.61</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>87.92</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>21.64</t>
+          <t>8.84</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.6211</t>
+          <t>0.5843</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -6722,22 +7043,22 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>91.69</t>
+          <t>90.68</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.1528</t>
+          <t>0.1928</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -6760,22 +7081,22 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>91.69</t>
+          <t>90.68</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.1528</t>
+          <t>0.1928</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -6798,22 +7119,22 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>94.65</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>21.64</t>
+          <t>21.68</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0671</t>
+          <t>0.0715</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -6836,26 +7157,26 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>85.34</t>
+          <t>89.30</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0407</t>
+          <t>0.0444</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -6874,26 +7195,26 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>85.34</t>
+          <t>89.30</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0407</t>
+          <t>0.0444</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -6912,26 +7233,26 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>82.10</t>
+          <t>89.27</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0114</t>
+          <t>0.0125</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -6940,6 +7261,1126 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000055</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100指数(QDII) A 美元现汇</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8289</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>270042</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100指数QDII A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8289</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006479</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100指数（QDII）C人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>34.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.8289</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006480</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100指数（QDII）C美元现汇</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>34.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.8289</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>040046</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数QDII - 人民币</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3419</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>040047</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数QDII - 美元现钞</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3419</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>040048</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数QDII - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3419</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000988</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票 - 人民币QDII</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3222</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000989</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票 - 美元现汇QDII</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.25</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3222</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000990</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票 - 美元现钞QDII</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.25</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3222</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰纳斯达克100 (QDII-ETF)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.68</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.2610</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001668</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富全球移动互联灵活配置混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>27.65</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1613</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>513500</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时标普500ETF(QDII)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>27.26</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>96.06</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0304</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000834</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成纳斯达克100指数 (QDII)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13.17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9825</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160213</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰纳斯达克100指数(QDII)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8131</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000043</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实美国成长股票(QDII) -人民币</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6875</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000044</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实美国成长股票(QDII) - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6875</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>161130</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数人民币（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6796</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003722</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数美元（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6796</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159941</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100ETFQDII</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6741</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002423</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>21.64</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6211</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>162415</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>21.64</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6211</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>161125</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达标普500指数(QDII-LOF) 人民币</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1528</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003718</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达标普500指数(QDII-LOF) 美元</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1528</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009975</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>21.64</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0671</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006373</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富兰克林国海全球科技互联混合（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006374</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富兰克林国海全球科技互联混合（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006555</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>浦银安盛全球智能科技股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
